--- a/mbs-perturbation/mega/svm/mega-svm-poly-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0625</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.6013071895424837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5278337813620072</v>
+        <v>0.9150425627240143</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E3" t="n">
-        <v>0.632168458781362</v>
+        <v>0.5892697132616488</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.625</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="E4" t="n">
-        <v>0.969481981981982</v>
+        <v>0.8481981981981983</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.98318462594372</v>
+        <v>0.4997712194005948</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4146076412720201</v>
+        <v>0.4954815831617478</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.575</v>
+        <v>0.5688044157314106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04609929078014185</v>
+        <v>0.3468085106382979</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08037414965986395</v>
+        <v>0.321001418961852</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7054552978682183</v>
+        <v>0.6695526553492408</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/mega-svm-poly-results.xlsx
+++ b/mbs-perturbation/mega/svm/mega-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4380952380952381</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6013071895424837</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9150425627240143</v>
+        <v>0.9064685314685315</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3125</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5892697132616488</v>
+        <v>0.4463421194190424</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8481981981981983</v>
+        <v>0.9113802119168845</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1651376146788991</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4997712194005948</v>
+        <v>0.6350626118067978</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.4642857142857142</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4954815831617478</v>
+        <v>0.7502408146415301</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5688044157314106</v>
+        <v>0.584110275689223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3468085106382979</v>
+        <v>0.3437632135306553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.321001418961852</v>
+        <v>0.3676493621321207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6695526553492408</v>
+        <v>0.7298988578505572</v>
       </c>
     </row>
   </sheetData>
